--- a/7_Part 4 Graphics and tables/xlsx-files/Modal Split_Wege.xlsx
+++ b/7_Part 4 Graphics and tables/xlsx-files/Modal Split_Wege.xlsx
@@ -460,51 +460,51 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>zu Fuß</t>
+          <t>Fahrrad</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>17.46</v>
+        <v>28.54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Auto</t>
+          <t>zu Fuß</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>17.05</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>multimodal</t>
+          <t>ÖPNV</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>16.65</v>
+        <v>19.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Fahrrad</t>
+          <t>multimodal</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>16.65</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>ÖPNV</t>
+          <t>Auto</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>16.57</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="7">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>15.61</v>
+        <v>3.83</v>
       </c>
     </row>
   </sheetData>
